--- a/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC15BCD1-6338-4243-BD23-839DFF630EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41148F1E-B56D-465C-8579-122300F01D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{64CB11F2-4E3C-4FB6-8CE7-C1488DA13F6D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1F762526-5C16-4A60-A532-25640DB0FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>73,88%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
     <t>32,62%</t>
   </si>
   <si>
@@ -347,6 +347,60 @@
     <t>65,16%</t>
   </si>
   <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
     <t>29,25%</t>
   </si>
   <si>
@@ -401,60 +455,6 @@
     <t>79,61%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
     <t>38,37%</t>
   </si>
   <si>
@@ -566,12 +566,51 @@
     <t>68,75%</t>
   </si>
   <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
     <t>48,21%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
     <t>67,93%</t>
   </si>
   <si>
@@ -599,9 +638,6 @@
     <t>32,07%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
     <t>66,13%</t>
   </si>
   <si>
@@ -620,42 +656,6 @@
     <t>72,46%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
     <t>43,01%</t>
   </si>
   <si>
@@ -767,6 +767,60 @@
     <t>68,81%</t>
   </si>
   <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
     <t>28,06%</t>
   </si>
   <si>
@@ -819,60 +873,6 @@
   </si>
   <si>
     <t>82,89%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
   </si>
   <si>
     <t>32,2%</t>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BCCB0E-C048-4087-B3B6-A21510631A42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FD4F5-4C57-4158-A3A8-964A9C82EFD7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>9964</v>
+        <v>5830</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1609,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>6179</v>
+        <v>6733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1621,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>16143</v>
+        <v>12563</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1642,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>15448</v>
+        <v>20347</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1657,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>9316</v>
+        <v>14994</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1672,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>24764</v>
+        <v>35341</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>25412</v>
+        <v>26177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1708,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>15495</v>
+        <v>21727</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N9" s="7">
-        <v>40907</v>
+        <v>47904</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>5830</v>
+        <v>9964</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1764,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6733</v>
+        <v>6179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1776,10 +1776,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>12563</v>
+        <v>16143</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1797,10 +1797,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>20347</v>
+        <v>15448</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1812,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>14994</v>
+        <v>9316</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1827,10 +1827,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>35341</v>
+        <v>24764</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1848,10 +1848,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26177</v>
+        <v>25412</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>21727</v>
+        <v>15495</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>47904</v>
+        <v>40907</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1940,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>76</v>
@@ -1994,7 +1994,7 @@
         <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF0C6F6-5B3E-4A65-8CF3-085231CBEFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C499502-1204-44DD-B7E5-4464794371EF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2337,10 +2337,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>8886</v>
+        <v>9546</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>102</v>
@@ -2352,10 +2352,10 @@
         <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>7160</v>
+        <v>8398</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>105</v>
@@ -2370,7 +2370,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>16046</v>
+        <v>17943</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>108</v>
@@ -2388,10 +2388,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>21493</v>
+        <v>19735</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>111</v>
@@ -2403,10 +2403,10 @@
         <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>14696</v>
+        <v>18440</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>114</v>
@@ -2418,10 +2418,10 @@
         <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>36189</v>
+        <v>38176</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>117</v>
@@ -2439,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>30379</v>
+        <v>29281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>21856</v>
+        <v>26838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>52235</v>
+        <v>56119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,10 +2492,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>9546</v>
+        <v>8886</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>120</v>
@@ -2507,10 +2507,10 @@
         <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>8398</v>
+        <v>7160</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>123</v>
@@ -2525,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>17943</v>
+        <v>16046</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>126</v>
@@ -2543,10 +2543,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>19735</v>
+        <v>21493</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>129</v>
@@ -2558,10 +2558,10 @@
         <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>18440</v>
+        <v>14696</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>132</v>
@@ -2573,10 +2573,10 @@
         <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>38176</v>
+        <v>36189</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2594,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>29281</v>
+        <v>30379</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>26838</v>
+        <v>21856</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="7">
-        <v>56119</v>
+        <v>52235</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98233CA7-BFF5-4DC3-A325-2F243349EDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20766060-B041-47CA-BACB-4901E4C74717}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>7568</v>
+        <v>7314</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -3098,10 +3098,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4904</v>
+        <v>6487</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -3113,19 +3113,19 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>12472</v>
+        <v>13802</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,46 +3137,46 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>8128</v>
+        <v>7188</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>9572</v>
+        <v>8138</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>17701</v>
+        <v>15325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>15696</v>
+        <v>14502</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>14476</v>
+        <v>14625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>30173</v>
+        <v>29127</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3241,46 +3241,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>7314</v>
+        <v>7568</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>4904</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12472</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6487</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M10" s="7">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7">
-        <v>13802</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,43 +3292,43 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>7188</v>
+        <v>8128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>8138</v>
+        <v>9572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>15325</v>
+        <v>17701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>204</v>
@@ -3343,7 +3343,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>14502</v>
+        <v>15696</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>14625</v>
+        <v>14476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3370,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>29127</v>
+        <v>30173</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3556,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA739F58-F3B6-4036-8193-E625B368CEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1EB0D-93F2-482F-AADB-C330EA1258AD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>12888</v>
+        <v>6910</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>242</v>
@@ -3844,10 +3844,10 @@
         <v>244</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>8941</v>
+        <v>2546</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>245</v>
@@ -3859,10 +3859,10 @@
         <v>247</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>21829</v>
+        <v>9457</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>248</v>
@@ -3880,10 +3880,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>33038</v>
+        <v>17599</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>251</v>
@@ -3895,10 +3895,10 @@
         <v>253</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>28158</v>
+        <v>9159</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>254</v>
@@ -3910,10 +3910,10 @@
         <v>256</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>61196</v>
+        <v>26757</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>257</v>
@@ -3931,10 +3931,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>45926</v>
+        <v>24509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>37099</v>
+        <v>11705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>83025</v>
+        <v>36214</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,10 +3984,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>6910</v>
+        <v>12888</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>260</v>
@@ -3999,10 +3999,10 @@
         <v>262</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>2546</v>
+        <v>8941</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>263</v>
@@ -4014,10 +4014,10 @@
         <v>265</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>9457</v>
+        <v>21829</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>266</v>
@@ -4035,10 +4035,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>17599</v>
+        <v>33038</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>269</v>
@@ -4050,10 +4050,10 @@
         <v>271</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>9159</v>
+        <v>28158</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>272</v>
@@ -4065,10 +4065,10 @@
         <v>274</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N11" s="7">
-        <v>26757</v>
+        <v>61196</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>275</v>
@@ -4086,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>24509</v>
+        <v>45926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>11705</v>
+        <v>37099</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>36214</v>
+        <v>83025</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41148F1E-B56D-465C-8579-122300F01D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5680811-6106-4346-9DF2-17F2BD463503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1F762526-5C16-4A60-A532-25640DB0FDBF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5DCA6D6-D48F-4CE8-B1A8-30349D201A69}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
   </si>
@@ -68,865 +68,1111 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>36,08%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,39 +1279,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1117,7 +1363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1228,13 +1474,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1243,6 +1482,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1307,19 +1553,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FD4F5-4C57-4158-A3A8-964A9C82EFD7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852AB729-5FA2-4DAA-A9A9-BD92D6B8EAA1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1436,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>10788</v>
+        <v>5456</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1451,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>6054</v>
+        <v>3905</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1466,10 +1732,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>16842</v>
+        <v>9360</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1487,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>19113</v>
+        <v>8086</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1502,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>11441</v>
+        <v>5431</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1517,10 +1783,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>30554</v>
+        <v>13518</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1538,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>29901</v>
+        <v>13542</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1819,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>17495</v>
+        <v>9336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1568,10 +1834,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>47396</v>
+        <v>22878</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1591,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>5830</v>
+        <v>28532</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1606,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>6733</v>
+        <v>19139</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>12563</v>
+        <v>47671</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1908,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>20347</v>
+        <v>6609</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>14994</v>
+        <v>4669</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1938,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>35341</v>
+        <v>11278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>26177</v>
+        <v>35141</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>21727</v>
+        <v>23808</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1989,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7">
-        <v>47904</v>
+        <v>58949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>9964</v>
+        <v>10914</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1761,10 +2027,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>6179</v>
+        <v>7398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1776,10 +2042,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>16143</v>
+        <v>18312</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1797,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>15448</v>
+        <v>4124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1812,10 +2078,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>9316</v>
+        <v>6301</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1827,10 +2093,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>24764</v>
+        <v>10425</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1848,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>25412</v>
+        <v>15038</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>15495</v>
+        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +2144,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>40907</v>
+        <v>28737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1895,55 +2161,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>26582</v>
+        <v>10006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>18966</v>
+        <v>5310</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>45548</v>
+        <v>15316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,49 +2218,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7763</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7">
-        <v>54908</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>35751</v>
+        <v>2564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>90659</v>
+        <v>10327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,55 +2269,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7">
+        <v>25643</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7">
+        <v>54908</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>35751</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>135</v>
+      </c>
+      <c r="N16" s="7">
+        <v>90659</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26582</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7">
+        <v>18966</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>67</v>
+      </c>
+      <c r="N17" s="7">
+        <v>45548</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>121</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>81490</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>81</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>54717</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>202</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>136207</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C499502-1204-44DD-B7E5-4464794371EF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D33C35-009E-40DA-B77B-50F5D61D356F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2182,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>19385</v>
+        <v>8070</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>13136</v>
+        <v>9654</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>32521</v>
+        <v>17724</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2660,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>19510</v>
+        <v>13652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>20412</v>
+        <v>10727</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>39922</v>
+        <v>24379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2711,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>38895</v>
+        <v>21722</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2726,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>33548</v>
+        <v>20381</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2741,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>72443</v>
+        <v>42103</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2337,49 +2764,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>9546</v>
+        <v>25942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>8398</v>
+        <v>22501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>17943</v>
+        <v>48444</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2815,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>19735</v>
+        <v>12479</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>18440</v>
+        <v>5787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>38176</v>
+        <v>18265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>29281</v>
+        <v>38421</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2881,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>26838</v>
+        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2896,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N9" s="7">
-        <v>56119</v>
+        <v>66709</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,49 +2919,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>8886</v>
+        <v>10195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>7160</v>
+        <v>11880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>16046</v>
+        <v>22075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,49 +2970,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>21493</v>
+        <v>4766</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>14696</v>
+        <v>8319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>36189</v>
+        <v>13085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>30379</v>
+        <v>14961</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +3036,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>21856</v>
+        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +3051,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>52235</v>
+        <v>35160</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2641,55 +3068,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>37817</v>
+        <v>16531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>28694</v>
+        <v>9513</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>66511</v>
+        <v>26044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +3125,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>60738</v>
+        <v>6920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>53548</v>
+        <v>3862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>114287</v>
+        <v>10782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,55 +3176,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23451</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>54</v>
+      </c>
+      <c r="N15" s="7">
+        <v>36826</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>86</v>
+      </c>
+      <c r="D16" s="7">
+        <v>60738</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>77</v>
+      </c>
+      <c r="I16" s="7">
+        <v>53548</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>163</v>
+      </c>
+      <c r="N16" s="7">
+        <v>114287</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7">
+        <v>37817</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>44</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28694</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>97</v>
+      </c>
+      <c r="N17" s="7">
+        <v>66511</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>139</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>98555</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>121</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>82242</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>260</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>180798</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2810,8 +3398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20766060-B041-47CA-BACB-4901E4C74717}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0356F7-AB96-47B2-8BF8-8D515B4914C8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2827,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,49 +3516,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>7244</v>
+        <v>6765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3316</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="7">
         <v>16</v>
       </c>
-      <c r="I4" s="7">
-        <v>9716</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="7">
-        <v>27</v>
-      </c>
       <c r="N4" s="7">
-        <v>16961</v>
+        <v>10082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,49 +3567,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>14004</v>
+        <v>5866</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>8305</v>
+        <v>6366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>22309</v>
+        <v>12231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>21248</v>
+        <v>12631</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3045,10 +3633,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>18021</v>
+        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3060,10 +3648,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>39270</v>
+        <v>22313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3083,49 +3671,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>7314</v>
+        <v>13112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>6487</v>
+        <v>11909</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>13802</v>
+        <v>25021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,46 +3725,46 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>7188</v>
+        <v>7957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>8138</v>
+        <v>6607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>15325</v>
+        <v>14564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3773,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>14502</v>
+        <v>21069</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>14625</v>
+        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3803,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>29127</v>
+        <v>39585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3238,49 +3826,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7568</v>
+        <v>4404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4904</v>
+        <v>4357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>12472</v>
+        <v>8761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,49 +3877,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>8128</v>
+        <v>1527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>9572</v>
+        <v>4022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>17701</v>
+        <v>5549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>15696</v>
+        <v>5931</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3355,25 +3943,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>20</v>
       </c>
-      <c r="I12" s="7">
-        <v>14476</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>41</v>
-      </c>
       <c r="N12" s="7">
-        <v>30173</v>
+        <v>14310</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3387,55 +3975,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>22127</v>
+        <v>5038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>21107</v>
+        <v>6433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>43234</v>
+        <v>11471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,49 +4032,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>29320</v>
+        <v>6778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>26016</v>
+        <v>4112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>55336</v>
+        <v>10890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,55 +4083,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11816</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>31</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22361</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7">
+        <v>29320</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="7">
+        <v>38</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26016</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M16" s="7">
+        <v>81</v>
+      </c>
+      <c r="N16" s="7">
+        <v>55336</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>22127</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7">
+        <v>21107</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="7">
+        <v>65</v>
+      </c>
+      <c r="N17" s="7">
+        <v>43234</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>51447</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>72</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>47123</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>146</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>98570</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3556,8 +4305,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1EB0D-93F2-482F-AADB-C330EA1258AD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6E5108-8A8C-4D55-B626-7862BEC57295}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3573,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3674,49 +4423,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>9041</v>
+        <v>5737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>4578</v>
+        <v>4447</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>13619</v>
+        <v>10184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,49 +4474,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>10075</v>
+        <v>4704</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>7494</v>
+        <v>3737</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>17569</v>
+        <v>8441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,10 +4525,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>19116</v>
+        <v>10441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3791,10 +4540,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>12072</v>
+        <v>8184</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3806,10 +4555,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>31188</v>
+        <v>18625</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3829,49 +4578,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>6910</v>
+        <v>13719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>2546</v>
+        <v>6719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>9457</v>
+        <v>20437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +4629,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>17599</v>
+        <v>7510</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>9159</v>
+        <v>2782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>26757</v>
+        <v>10292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +4680,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>24509</v>
+        <v>21229</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3949,7 +4698,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>11705</v>
+        <v>9501</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +4710,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>36214</v>
+        <v>30729</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,49 +4733,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>12888</v>
+        <v>14436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>8941</v>
+        <v>13530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>21829</v>
+        <v>27966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4784,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>33038</v>
+        <v>7435</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>28158</v>
+        <v>3258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>61196</v>
+        <v>10693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>45926</v>
+        <v>21871</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4850,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>37099</v>
+        <v>16788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4865,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>83025</v>
+        <v>38659</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4133,55 +4882,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>28839</v>
+        <v>26820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>16066</v>
+        <v>20115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>44905</v>
+        <v>46934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +4939,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>60712</v>
+        <v>9191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>44810</v>
+        <v>6289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>105523</v>
+        <v>15480</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,55 +4990,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36011</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>36</v>
+      </c>
+      <c r="I15" s="7">
+        <v>26404</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>73</v>
+      </c>
+      <c r="N15" s="7">
+        <v>62414</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7">
+        <v>60712</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H16" s="7">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7">
+        <v>44810</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M16" s="7">
+        <v>141</v>
+      </c>
+      <c r="N16" s="7">
+        <v>105523</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28839</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="7">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7">
+        <v>16066</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M17" s="7">
+        <v>68</v>
+      </c>
+      <c r="N17" s="7">
+        <v>44905</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>89551</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>89</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>60876</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>209</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>150428</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5680811-6106-4346-9DF2-17F2BD463503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCCF255-AFB9-45C3-84A7-DB089E032017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5DCA6D6-D48F-4CE8-B1A8-30349D201A69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D104F9-1B45-4FEF-8A4D-F0CC87215370}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>40,29%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>59,71%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1039 +140,1033 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>36,65%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852AB729-5FA2-4DAA-A9A9-BD92D6B8EAA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8656AAF6-8141-4F26-B337-111801CE1645}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2491,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D33C35-009E-40DA-B77B-50F5D61D356F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9618F09A-240A-4E9E-8F0F-E132FD3C4AA5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0356F7-AB96-47B2-8BF8-8D515B4914C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC804DF-64F3-4498-B37E-E5F1077F23E0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,7 +3522,7 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3537,13 +3531,13 @@
         <v>3316</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3552,13 +3546,13 @@
         <v>10082</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3567,13 @@
         <v>5866</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3588,13 +3582,13 @@
         <v>6366</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3603,13 +3597,13 @@
         <v>12231</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3671,13 @@
         <v>13112</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3692,13 +3686,13 @@
         <v>11909</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3710,10 +3704,10 @@
         <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3722,13 @@
         <v>7957</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3743,13 +3737,13 @@
         <v>6607</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3761,10 +3755,10 @@
         <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>4404</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3847,13 +3841,13 @@
         <v>4357</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3862,13 +3856,13 @@
         <v>8761</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3877,13 @@
         <v>1527</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3898,13 +3892,13 @@
         <v>4022</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3913,13 +3907,13 @@
         <v>5549</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3981,13 @@
         <v>5038</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4002,13 +3996,13 @@
         <v>6433</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4017,13 +4011,13 @@
         <v>11471</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>6778</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4053,13 +4047,13 @@
         <v>4112</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4068,13 +4062,13 @@
         <v>10890</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4136,13 @@
         <v>29320</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -4157,13 +4151,13 @@
         <v>26016</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4172,13 +4166,13 @@
         <v>55336</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4187,13 @@
         <v>22127</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -4208,13 +4202,13 @@
         <v>21107</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4223,13 +4217,13 @@
         <v>43234</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6E5108-8A8C-4D55-B626-7862BEC57295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F765138C-907B-4CA5-B1E5-427C1E479AC4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4429,13 +4423,13 @@
         <v>5737</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4444,13 +4438,13 @@
         <v>4447</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4459,13 +4453,13 @@
         <v>10184</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4474,13 @@
         <v>4704</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4495,13 +4489,13 @@
         <v>3737</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4510,13 +4504,13 @@
         <v>8441</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4578,13 @@
         <v>13719</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4599,13 +4593,13 @@
         <v>6719</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4614,13 +4608,13 @@
         <v>20437</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4629,13 @@
         <v>7510</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4650,13 +4644,13 @@
         <v>2782</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
@@ -4665,13 +4659,13 @@
         <v>10292</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4733,13 @@
         <v>14436</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4754,13 +4748,13 @@
         <v>13530</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4769,13 +4763,13 @@
         <v>27966</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4784,13 @@
         <v>7435</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4805,13 +4799,13 @@
         <v>3258</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -4820,13 +4814,13 @@
         <v>10693</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4888,13 @@
         <v>26820</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4909,13 +4903,13 @@
         <v>20115</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4924,13 +4918,13 @@
         <v>46934</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4939,13 @@
         <v>9191</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4960,13 +4954,13 @@
         <v>6289</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4975,13 +4969,13 @@
         <v>15480</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5043,13 @@
         <v>60712</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -5064,13 +5058,13 @@
         <v>44810</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -5079,13 +5073,13 @@
         <v>105523</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5094,13 @@
         <v>28839</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5115,13 +5109,13 @@
         <v>16066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -5130,13 +5124,13 @@
         <v>44905</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCCF255-AFB9-45C3-84A7-DB089E032017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E54967-899E-4D02-96DC-6DCD0EBC5BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D104F9-1B45-4FEF-8A4D-F0CC87215370}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DEA8F644-A9C8-48ED-A723-57072BA2A912}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2007 (Tasa respuesta: 9,6%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
     <t>40,29%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>40,91%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>59,09%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1036 +137,1024 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>47,92%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8656AAF6-8141-4F26-B337-111801CE1645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525A7C7-EA6C-4C3C-8400-FABAA274CB98}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>5456</v>
+        <v>3905</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1711,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>3905</v>
+        <v>5456</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1747,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>8086</v>
+        <v>5431</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1762,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>5431</v>
+        <v>8086</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1798,25 +1786,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9336</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>13542</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1851,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>28532</v>
+        <v>19139</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1866,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>19139</v>
+        <v>28532</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1902,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>6609</v>
+        <v>4669</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1917,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>4669</v>
+        <v>6609</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1953,25 +1941,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23808</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>52</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>35141</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7">
-        <v>23808</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2006,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>10914</v>
+        <v>7398</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2021,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>7398</v>
+        <v>10914</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2057,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>4124</v>
+        <v>6301</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2072,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>6301</v>
+        <v>4124</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2108,25 +2096,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13699</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>15038</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2161,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>10006</v>
+        <v>5310</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2176,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>5310</v>
+        <v>10006</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2212,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>7763</v>
+        <v>2564</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2227,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>2564</v>
+        <v>7763</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2263,25 +2251,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>17769</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7874</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2316,10 +2304,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7">
-        <v>54908</v>
+        <v>35751</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2331,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>35751</v>
+        <v>54908</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2367,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>26582</v>
+        <v>18966</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2382,10 +2370,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>18966</v>
+        <v>26582</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2418,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>81</v>
+      </c>
+      <c r="D18" s="7">
+        <v>54717</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>121</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>81490</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>81</v>
-      </c>
-      <c r="I18" s="7">
-        <v>54717</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9618F09A-240A-4E9E-8F0F-E132FD3C4AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A70D48-0E3D-4298-B41B-95688E7650FA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2603,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>8070</v>
+        <v>9654</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2618,10 +2606,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>9654</v>
+        <v>8070</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2654,10 +2642,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>13652</v>
+        <v>10727</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2669,10 +2657,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>10727</v>
+        <v>13652</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2708,7 +2696,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>21722</v>
+        <v>20381</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2723,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>20381</v>
+        <v>21722</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2758,10 +2746,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>25942</v>
+        <v>22501</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2773,10 +2761,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>22501</v>
+        <v>25942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2809,10 +2797,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>12479</v>
+        <v>5787</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2824,10 +2812,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>5787</v>
+        <v>12479</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2860,25 +2848,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28288</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38421</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2913,10 +2901,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>10195</v>
+        <v>11880</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2928,10 +2916,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>11880</v>
+        <v>10195</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2964,10 +2952,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>4766</v>
+        <v>8319</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2979,10 +2967,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>8319</v>
+        <v>4766</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -3015,25 +3003,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20199</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14961</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3068,10 +3056,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>16531</v>
+        <v>9513</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3083,10 +3071,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>9513</v>
+        <v>16531</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3119,10 +3107,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>6920</v>
+        <v>3862</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>171</v>
@@ -3134,10 +3122,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>3862</v>
+        <v>6920</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
@@ -3170,25 +3158,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>23451</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>13375</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3223,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>60738</v>
+        <v>53548</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>180</v>
@@ -3238,10 +3226,10 @@
         <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>53548</v>
+        <v>60738</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>183</v>
@@ -3274,10 +3262,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>37817</v>
+        <v>28694</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>189</v>
@@ -3289,10 +3277,10 @@
         <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>28694</v>
+        <v>37817</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>192</v>
@@ -3325,25 +3313,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>121</v>
+      </c>
+      <c r="D18" s="7">
+        <v>82242</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>139</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>98555</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>121</v>
-      </c>
-      <c r="I18" s="7">
-        <v>82242</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3392,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC804DF-64F3-4498-B37E-E5F1077F23E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051F7BC3-5D3E-486F-843A-38ED90D79DDF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,10 +3498,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>6765</v>
+        <v>3316</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>199</v>
@@ -3522,22 +3510,22 @@
         <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>3316</v>
+        <v>6765</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3546,13 +3534,13 @@
         <v>10082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,34 +3549,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6366</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>5866</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6366</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3597,13 +3585,13 @@
         <v>12231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,25 +3600,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9682</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3665,34 +3653,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11909</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>13112</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11909</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3704,10 +3692,10 @@
         <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,31 +3707,31 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>7957</v>
+        <v>6607</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>6607</v>
+        <v>7957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3755,10 +3743,10 @@
         <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,25 +3755,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18516</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21069</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7">
-        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3823,31 +3811,31 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4404</v>
+        <v>4357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4357</v>
+        <v>4404</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3856,13 +3844,13 @@
         <v>8761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,34 +3859,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4022</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1527</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4022</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3907,13 +3895,13 @@
         <v>5549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,25 +3910,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5931</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8379</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3975,34 +3963,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6433</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5038</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6433</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4011,13 +3999,13 @@
         <v>11471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,34 +4014,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4112</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>6778</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4112</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4062,13 +4050,13 @@
         <v>10890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>11816</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7">
-        <v>10545</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4130,34 +4118,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26016</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>29320</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26016</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4166,13 +4154,13 @@
         <v>55336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,34 +4169,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>21107</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22127</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21107</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4217,13 +4205,13 @@
         <v>43234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,25 +4220,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>74</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>51447</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7">
-        <v>47123</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4299,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F765138C-907B-4CA5-B1E5-427C1E479AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CFF24C-39EA-49C4-A570-4B82CB3E22EF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4316,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4417,31 +4405,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4511</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="D4" s="7">
-        <v>5737</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
       <c r="I4" s="7">
-        <v>4447</v>
+        <v>6196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>291</v>
@@ -4450,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>10184</v>
+        <v>10707</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>292</v>
@@ -4468,10 +4456,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>4704</v>
+        <v>3662</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>295</v>
@@ -4483,34 +4471,34 @@
         <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>3737</v>
+        <v>5253</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>8441</v>
+        <v>8915</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,25 +4507,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8173</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>10441</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
       <c r="I6" s="7">
-        <v>8184</v>
+        <v>11449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4552,7 +4540,7 @@
         <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>18625</v>
+        <v>19622</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4572,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6711</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="7">
         <v>23</v>
       </c>
-      <c r="D7" s="7">
-        <v>13719</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>14575</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6719</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>20437</v>
+        <v>21285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2581</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="7">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
-        <v>7510</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>8084</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2782</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>10292</v>
+        <v>10665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,25 +4662,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9292</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
-        <v>21229</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>17</v>
-      </c>
       <c r="I9" s="7">
-        <v>9501</v>
+        <v>22659</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4707,7 +4695,7 @@
         <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>30729</v>
+        <v>31950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4730,46 +4718,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>14436</v>
+        <v>13643</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>13530</v>
+        <v>15375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>27966</v>
+        <v>29018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3095</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
-        <v>7435</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>8054</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3258</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>10693</v>
+        <v>11149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,25 +4817,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16738</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
-        <v>21871</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
       <c r="I12" s="7">
-        <v>16788</v>
+        <v>23429</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4862,7 +4850,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>38659</v>
+        <v>40167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4882,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23261</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="D13" s="7">
-        <v>26820</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>32377</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20115</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>46934</v>
+        <v>55638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6085</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
-        <v>9191</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>9115</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6289</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>15480</v>
+        <v>15200</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,25 +4972,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29346</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
-        <v>36011</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>36</v>
-      </c>
       <c r="I15" s="7">
-        <v>26404</v>
+        <v>41492</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5017,7 +5005,7 @@
         <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>62414</v>
+        <v>70838</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5037,49 +5025,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48125</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="7">
         <v>77</v>
       </c>
-      <c r="D16" s="7">
-        <v>60712</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>68522</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="7">
-        <v>64</v>
-      </c>
-      <c r="I16" s="7">
-        <v>44810</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
       </c>
       <c r="N16" s="7">
-        <v>105523</v>
+        <v>116648</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15423</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
-        <v>28839</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>30507</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16066</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>44905</v>
+        <v>45930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,25 +5127,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7">
+        <v>63548</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>120</v>
       </c>
-      <c r="D18" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>89</v>
-      </c>
       <c r="I18" s="7">
-        <v>60876</v>
+        <v>99029</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5172,7 +5160,7 @@
         <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>150428</v>
+        <v>162578</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
